--- a/04_20-21_ae.xlsx
+++ b/04_20-21_ae.xlsx
@@ -1,24 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogu/eclipse-workspace/fuh-scheduling/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E432B53-69DE-524A-AB33-4A1086716743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="partidos" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="canchas" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="categorias" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="instituciones" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="bloques de categorias" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="canchas-disponibilidad" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="instituciones-prioridad" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="exclusividad" sheetId="8" r:id="rId11"/>
+    <sheet name="partidos" sheetId="1" r:id="rId1"/>
+    <sheet name="canchas" sheetId="2" r:id="rId2"/>
+    <sheet name="categorias" sheetId="3" r:id="rId3"/>
+    <sheet name="instituciones" sheetId="4" r:id="rId4"/>
+    <sheet name="bloques de categorias" sheetId="5" r:id="rId5"/>
+    <sheet name="canchas-disponibilidad" sheetId="6" r:id="rId6"/>
+    <sheet name="instituciones-prioridad" sheetId="7" r:id="rId7"/>
+    <sheet name="exclusividad" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="ListaCanchas">OFFSET([1]canchas!$A$2,0,0,COUNTA([1]canchas!$A:$A)-1,1)</definedName>
+    <definedName name="ListaInstituciones">OFFSET([1]instituciones!$A$2,0,0,COUNTA([1]instituciones!$A:$A)-1,1)</definedName>
+  </definedNames>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t>instituto 1</t>
   </si>
@@ -201,48 +217,77 @@
   </si>
   <si>
     <t>instituto</t>
+  </si>
+  <si>
+    <t>cancha1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans Text&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,7 +295,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -265,8 +310,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -280,111 +331,296 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="partidos"/>
+      <sheetName val="canchas"/>
+      <sheetName val="categorias"/>
+      <sheetName val="bloques de categorias"/>
+      <sheetName val="instituciones"/>
+      <sheetName val="canchas-disponibilidad"/>
+      <sheetName val="instituciones-prioridad"/>
+      <sheetName val="exclusividad"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>cancha</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>SCUOLA ITALIANA</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>SPORTHALLE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>COLONIA NICOLICH</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>PASO CARRASCO</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>POLIDEPORTIVO CIUDAD DE LA COSTA</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>CLARA JACKSON</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>POLIDEPORTIVO LA PAZ</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>instituciones</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>ACBALONMANO</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>AEBU</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ALEMAN DS</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ARETEIA BIMBULLY</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BALONMANO LAYVA</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>C. A GOES</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v xml:space="preserve">C. A. PEÑAROL </v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>C. PONTEVEDRES SyD.</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>CBR</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>CEVVEN</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>CLUB MALVIN</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>CLUB NAUTICO</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>CLUB SOLIS</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>COLEGIO ALEMAN</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>COLEGIO SAN PABLO</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>CS. LA PAZ</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>CS. PROGRESO</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>ENFOQUE</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>LA MENNAIS</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>MHB 33</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>PARQUE CUBANO</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>PONTEVEDRES BALONMAN</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>SCUOLA ITALIANA</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>COLEGIO SEMINARIO</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>SIM</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>STELLA MARIS</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>UNIÓN SRS</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>WOODLANDS</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -574,25 +810,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.43"/>
-    <col customWidth="1" min="2" max="2" width="25.86"/>
-    <col customWidth="1" min="3" max="3" width="23.14"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,631 +841,502 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2181,625 +2290,658 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.14"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.29"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>0.375</v>
       </c>
-      <c r="C3" s="15">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>0.625</v>
       </c>
-      <c r="C4" s="15">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>0.375</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="C5" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="15">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>0.375</v>
       </c>
-      <c r="C7" s="15">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="C7" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="15">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>0.375</v>
       </c>
-      <c r="C9" s="15">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="C9" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C10" s="12">
         <v>0.625</v>
       </c>
-      <c r="D10" s="14">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="D10" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="15">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C11" s="12">
         <v>0.75</v>
       </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Cancha no válida" error="Seleccione una cancha de la lista desplegable" sqref="B4:B7" xr:uid="{41764EE2-1AC7-8146-A3BD-1FB9A58C09B9}">
+      <formula1>ListaCanchas</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Instituto no válido" error="Seleccione un instituto de la lista desplegable" sqref="A4:A7" xr:uid="{26B6F93D-D2C2-3A42-8AFF-2A1292FA4093}">
+      <formula1>ListaInstituciones</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/04_20-21_ae.xlsx
+++ b/04_20-21_ae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogu/eclipse-workspace/fuh-scheduling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogu/Documentos/git/ae-fixture/data/entrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E432B53-69DE-524A-AB33-4A1086716743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896E41DE-E94E-6241-A3FD-EFE5D92A4E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17180" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="partidos" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,12 @@
     <sheet name="instituciones-prioridad" sheetId="7" r:id="rId7"/>
     <sheet name="exclusividad" sheetId="8" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="ListaCanchas">OFFSET([1]canchas!$A$2,0,0,COUNTA([1]canchas!$A:$A)-1,1)</definedName>
-    <definedName name="ListaInstituciones">OFFSET([1]instituciones!$A$2,0,0,COUNTA([1]instituciones!$A:$A)-1,1)</definedName>
-  </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="62">
   <si>
     <t>instituto 1</t>
   </si>
@@ -226,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,23 +264,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -310,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,26 +313,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,11 +345,7 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,223 +361,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="partidos"/>
-      <sheetName val="canchas"/>
-      <sheetName val="categorias"/>
-      <sheetName val="bloques de categorias"/>
-      <sheetName val="instituciones"/>
-      <sheetName val="canchas-disponibilidad"/>
-      <sheetName val="instituciones-prioridad"/>
-      <sheetName val="exclusividad"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>cancha</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>SCUOLA ITALIANA</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>SPORTHALLE</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>COLONIA NICOLICH</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>PASO CARRASCO</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>POLIDEPORTIVO CIUDAD DE LA COSTA</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>CLARA JACKSON</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>POLIDEPORTIVO LA PAZ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>instituciones</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>ACBALONMANO</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>AEBU</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ALEMAN DS</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>ARETEIA BIMBULLY</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BALONMANO LAYVA</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>C. A GOES</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v xml:space="preserve">C. A. PEÑAROL </v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>C. PONTEVEDRES SyD.</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>CBR</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CEVVEN</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>CLUB MALVIN</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>CLUB NAUTICO</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>CLUB SOLIS</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>COLEGIO ALEMAN</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>COLEGIO SAN PABLO</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>CS. LA PAZ</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>CS. PROGRESO</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>ENFOQUE</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>LA MENNAIS</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>MHB 33</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>PARQUE CUBANO</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>PONTEVEDRES BALONMAN</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>SCUOLA ITALIANA</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>COLEGIO SEMINARIO</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>SIM</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>STELLA MARIS</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>UNIÓN SRS</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>WOODLANDS</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -840,6 +584,12 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1137,13 +887,13 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1151,13 +901,13 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1165,13 +915,13 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1185,7 +935,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1193,13 +943,13 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1207,13 +957,13 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1221,13 +971,13 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1235,54 +985,66 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2688,9 +2450,14 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
@@ -2844,68 +2611,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Cancha no válida" error="Seleccione una cancha de la lista desplegable" sqref="B4:B7" xr:uid="{41764EE2-1AC7-8146-A3BD-1FB9A58C09B9}">
-      <formula1>ListaCanchas</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Instituto no válido" error="Seleccione un instituto de la lista desplegable" sqref="A4:A7" xr:uid="{26B6F93D-D2C2-3A42-8AFF-2A1292FA4093}">
-      <formula1>ListaInstituciones</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2917,9 +2661,14 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
@@ -2934,7 +2683,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
